--- a/studies.xlsx
+++ b/studies.xlsx
@@ -44,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +74,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -110,6 +116,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -257,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E3"/>
   <tableColumns count="5">
     <tableColumn id="1" name="DATA" dataDxfId="4"/>
     <tableColumn id="2" name="HORA I" dataDxfId="3"/>
@@ -557,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,7 +613,7 @@
         <v>0.3347222222222222</v>
       </c>
       <c r="C2" s="3">
-        <v>0.5</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -606,6 +621,17 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>44837</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="estudos" sheetId="1" r:id="rId1"/>
+    <sheet name="Estudos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>DATA</t>
   </si>
@@ -31,10 +31,16 @@
     <t>HORA F</t>
   </si>
   <si>
-    <t>Aula de HARD (Controle de sessão) + Início de implemetação do controle de produtos o projeto green_collections</t>
-  </si>
-  <si>
     <t>HARD</t>
+  </si>
+  <si>
+    <t>DESCANSO</t>
+  </si>
+  <si>
+    <t>Aula de HARD (Controle de sessão) + Início de implemetação do controle de produtos o (projeto green collections)</t>
+  </si>
+  <si>
+    <t>Implementação de controle de produtos (projeto green collections) + Ajuda alpha (Atividade extra)</t>
   </si>
 </sst>
 </file>
@@ -101,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -121,9 +127,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -131,7 +134,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -272,14 +294,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E3"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="DATA" dataDxfId="4"/>
-    <tableColumn id="2" name="HORA I" dataDxfId="3"/>
-    <tableColumn id="3" name="HORA F" dataDxfId="2"/>
-    <tableColumn id="4" name="ASSUNTO" dataDxfId="1"/>
-    <tableColumn id="5" name="PRODUÇÃO" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F3" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F3"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="DATA" dataDxfId="5"/>
+    <tableColumn id="2" name="HORA I" dataDxfId="4"/>
+    <tableColumn id="3" name="HORA F" dataDxfId="3"/>
+    <tableColumn id="4" name="ASSUNTO" dataDxfId="2"/>
+    <tableColumn id="5" name="PRODUÇÃO" dataDxfId="1"/>
+    <tableColumn id="6" name="DESCANSO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -572,23 +595,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.140625" style="1"/>
+    <col min="6" max="6" width="59.85546875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -604,8 +628,11 @@
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44837</v>
       </c>
@@ -616,22 +643,34 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44837</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>0.58819444444444446</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="3">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -128,6 +128,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -294,8 +297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F3" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F4"/>
   <tableColumns count="6">
     <tableColumn id="1" name="DATA" dataDxfId="5"/>
     <tableColumn id="2" name="HORA I" dataDxfId="4"/>
@@ -595,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -672,6 +675,18 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>44838</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>DATA</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Implementação de controle de produtos (projeto green collections) + Ajuda alpha (Atividade extra)</t>
+  </si>
+  <si>
+    <t>Aula de HARD (Criptografia) + implemetação do controle de produtos o (projeto green collections)</t>
   </si>
 </sst>
 </file>
@@ -297,8 +300,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="DATA" dataDxfId="5"/>
     <tableColumn id="2" name="HORA I" dataDxfId="4"/>
@@ -598,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -675,17 +678,35 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44838</v>
       </c>
       <c r="B4" s="8">
         <v>0.3923611111111111</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="8">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>44838</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>DATA</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>Implementação de controle de produtos (projeto green collections) + Ajuda alpha (Atividade extra)</t>
+  </si>
+  <si>
+    <t>Aula de HARD (Criptografia) +  implemetação do controle de produtos o (projeto green collections)</t>
+  </si>
+  <si>
+    <t>Momento empresa (feedback) + implementação de produtos (projeto green collections)</t>
+  </si>
+  <si>
+    <t>Implementação de produtos green collections</t>
   </si>
 </sst>
 </file>
@@ -297,8 +306,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
     <tableColumn id="1" name="DATA" dataDxfId="5"/>
     <tableColumn id="2" name="HORA I" dataDxfId="4"/>
@@ -598,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -675,17 +684,61 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44838</v>
       </c>
       <c r="B4" s="8">
         <v>0.3923611111111111</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>44838</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.79722222222222217</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>44838</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -610,7 +610,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -731,14 +731,18 @@
       <c r="B6" s="8">
         <v>0.85763888888888884</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>0.91319444444444453</v>
+      </c>
       <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -306,8 +306,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
     <tableColumn id="1" name="DATA" dataDxfId="5"/>
     <tableColumn id="2" name="HORA I" dataDxfId="4"/>
@@ -607,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -744,6 +744,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>44839</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>DATA</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Implementação de produtos green collections</t>
+  </si>
+  <si>
+    <t>Aula de HARD (JWT) +  implemetação produtos do projeto green collections</t>
   </si>
 </sst>
 </file>
@@ -609,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -744,17 +747,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44839</v>
       </c>
       <c r="B7" s="8">
         <v>0.36805555555555558</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="8">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.0416666666666666E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Estudos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>DATA</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Aula de HARD (JWT) +  implemetação produtos do projeto green collections</t>
+  </si>
+  <si>
+    <t>DIF</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -309,15 +331,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F7"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="DATA" dataDxfId="5"/>
-    <tableColumn id="2" name="HORA I" dataDxfId="4"/>
-    <tableColumn id="3" name="HORA F" dataDxfId="3"/>
-    <tableColumn id="4" name="ASSUNTO" dataDxfId="2"/>
-    <tableColumn id="5" name="PRODUÇÃO" dataDxfId="1"/>
-    <tableColumn id="6" name="DESCANSO" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G8"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="DATA" dataDxfId="6"/>
+    <tableColumn id="2" name="HORA I" dataDxfId="5"/>
+    <tableColumn id="3" name="HORA F" dataDxfId="4"/>
+    <tableColumn id="8" name="DIF" dataDxfId="0">
+      <calculatedColumnFormula>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="ASSUNTO" dataDxfId="3"/>
+    <tableColumn id="5" name="PRODUÇÃO" dataDxfId="2"/>
+    <tableColumn id="6" name="DESCANSO" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -610,24 +635,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="59.85546875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="12.140625" style="1"/>
+    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -638,16 +664,19 @@
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44837</v>
       </c>
@@ -657,17 +686,21 @@
       <c r="C2" s="3">
         <v>0.50624999999999998</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.17152777777777778</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44837</v>
       </c>
@@ -677,17 +710,21 @@
       <c r="C3" s="3">
         <v>0.76736111111111116</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.1791666666666667</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44838</v>
       </c>
@@ -697,17 +734,21 @@
       <c r="C4" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>8.680555555555558E-2</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44838</v>
       </c>
@@ -717,17 +758,21 @@
       <c r="C5" s="8">
         <v>0.79722222222222217</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.21527777777777768</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44838</v>
       </c>
@@ -737,17 +782,21 @@
       <c r="C6" s="8">
         <v>0.91319444444444453</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>5.5555555555555691E-2</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44839</v>
       </c>
@@ -757,15 +806,33 @@
       <c r="C7" s="8">
         <v>0.54861111111111105</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.18055555555555547</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="8">
         <v>1.0416666666666666E-2</v>
       </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="3">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>-0.59722222222222221</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>DATA</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>DIF</t>
+  </si>
+  <si>
+    <t>Implementação de projeto plant collections</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -225,6 +227,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -331,18 +334,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="DATA" dataDxfId="6"/>
     <tableColumn id="2" name="HORA I" dataDxfId="5"/>
     <tableColumn id="3" name="HORA F" dataDxfId="4"/>
-    <tableColumn id="8" name="DIF" dataDxfId="0">
+    <tableColumn id="8" name="DIF" dataDxfId="3">
       <calculatedColumnFormula>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="ASSUNTO" dataDxfId="3"/>
-    <tableColumn id="5" name="PRODUÇÃO" dataDxfId="2"/>
-    <tableColumn id="6" name="DESCANSO" dataDxfId="1"/>
+    <tableColumn id="4" name="ASSUNTO" dataDxfId="2"/>
+    <tableColumn id="5" name="PRODUÇÃO" dataDxfId="1"/>
+    <tableColumn id="6" name="DESCANSO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -825,14 +828,44 @@
       <c r="B8" s="8">
         <v>0.59722222222222221</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8">
+        <v>0.76388888888888884</v>
+      </c>
       <c r="D8" s="3">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.59722222222222221</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.0208333333333333</v>
+      </c>
+      <c r="D9" s="8">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -334,8 +334,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G10"/>
   <tableColumns count="7">
     <tableColumn id="1" name="DATA" dataDxfId="6"/>
     <tableColumn id="2" name="HORA I" dataDxfId="5"/>
@@ -638,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -867,6 +867,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>-0.3923611111111111</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>DATA</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>Implementação de projeto plant collections</t>
+  </si>
+  <si>
+    <t>Implementação de projeto plant collections + aula de inglês</t>
+  </si>
+  <si>
+    <t>HARD + INGLES</t>
+  </si>
+  <si>
+    <t>HARD + SOFT</t>
+  </si>
+  <si>
+    <t>Implementação de projeto plant collections + aula de soft</t>
   </si>
 </sst>
 </file>
@@ -334,8 +346,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G16" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G16"/>
   <tableColumns count="7">
     <tableColumn id="1" name="DATA" dataDxfId="6"/>
     <tableColumn id="2" name="HORA I" dataDxfId="5"/>
@@ -638,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -824,7 +836,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6">
+        <v>44839</v>
+      </c>
       <c r="B8" s="8">
         <v>0.59722222222222221</v>
       </c>
@@ -846,7 +860,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6">
+        <v>44839</v>
+      </c>
       <c r="B9" s="8">
         <v>0.79166666666666663</v>
       </c>
@@ -868,18 +884,157 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6">
+        <v>44840</v>
+      </c>
       <c r="B10" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="8">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>44840</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D11" s="8">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.375</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>44841</v>
+      </c>
+      <c r="B12" s="8">
         <v>0.3923611111111111</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8">
-        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.3923611111111111</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+      <c r="C12" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="8">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.14930555555555552</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>44841</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D13" s="8">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>44842</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D14" s="8">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>44842</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D15" s="8">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>DATA</t>
   </si>
@@ -653,7 +653,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1028,13 +1028,28 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="6">
+        <v>44843</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="D16" s="8">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2.7777777777777776E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>DATA</t>
   </si>
@@ -346,8 +346,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G16" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G17"/>
   <tableColumns count="7">
     <tableColumn id="1" name="DATA" dataDxfId="6"/>
     <tableColumn id="2" name="HORA I" dataDxfId="5"/>
@@ -650,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1051,6 +1051,30 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>44844</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.2486111111111111</v>
+      </c>
+      <c r="D17" s="8">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.99861111111111112</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Estudos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>DATA</t>
   </si>
@@ -71,6 +71,33 @@
   </si>
   <si>
     <t>Implementação de projeto plant collections + aula de soft</t>
+  </si>
+  <si>
+    <t>ÚTEIS</t>
+  </si>
+  <si>
+    <t>Implementação de projeto plant collections + atividade voluntária no Alpha EdTeck</t>
+  </si>
+  <si>
+    <t>Implementação de projeto plant collections + apresentação de andamento do projeto</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Finalização e apresentação do projero green gollections</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTeck + Curso de segurança da informação</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTeck + revisão de javascript</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTeck + resolução de atividades pendentes</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTeck + Aula de Soft + resolução de atividades pendentes</t>
   </si>
 </sst>
 </file>
@@ -80,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,14 +123,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,6 +132,44 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -137,12 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -154,20 +208,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -184,7 +250,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -203,6 +268,79 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -258,7 +396,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -293,6 +430,80 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -346,20 +557,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G17"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="DATA" dataDxfId="6"/>
-    <tableColumn id="2" name="HORA I" dataDxfId="5"/>
-    <tableColumn id="3" name="HORA F" dataDxfId="4"/>
-    <tableColumn id="8" name="DIF" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H34" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:H34"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="DATA" totalsRowLabel="Total" dataDxfId="14"/>
+    <tableColumn id="2" name="HORA I" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" name="HORA F" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="8" name="DIF" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="ASSUNTO" dataDxfId="2"/>
-    <tableColumn id="5" name="PRODUÇÃO" dataDxfId="1"/>
-    <tableColumn id="6" name="DESCANSO" dataDxfId="0"/>
+    <tableColumn id="7" name="DESCANSO" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" name="ÚTEIS" dataDxfId="5" totalsRowDxfId="4">
+      <calculatedColumnFormula>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="ASSUNTO" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="PRODUÇÃO" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -650,430 +864,947 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.140625" style="1"/>
+    <col min="1" max="1" width="16" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>44837</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.3347222222222222</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.50624999999999998</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
         <v>0.17152777777777778</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F2" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3">
-        <v>6.9444444444444441E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    </row>
+    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>44837</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.58819444444444446</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.76736111111111116</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
         <v>0.1791666666666667</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.16875000000000004</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3">
+    </row>
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>44838</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D4" s="2">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>8.680555555555558E-2</v>
+      </c>
+      <c r="E4" s="5">
         <v>1.0416666666666666E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="F4" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>7.6388888888888909E-2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>44838</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B5" s="5">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.79722222222222217</v>
+      </c>
+      <c r="D5" s="2">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.21527777777777768</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.21527777777777768</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>44838</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D6" s="2">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>5.5555555555555691E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>5.5555555555555691E-2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>44839</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D7" s="2">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.18055555555555547</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.17013888888888881</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>44839</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D8" s="2">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>44839</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.0208333333333333</v>
+      </c>
+      <c r="D9" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>44840</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>44840</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D11" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.375</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.375</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>44841</v>
+      </c>
+      <c r="B12" s="5">
         <v>0.3923611111111111</v>
       </c>
-      <c r="C4" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D4" s="3">
-        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>8.680555555555558E-2</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="C12" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.14930555555555552</v>
+      </c>
+      <c r="E12" s="5">
         <v>1.0416666666666666E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>44838</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0.58194444444444449</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.79722222222222217</v>
-      </c>
-      <c r="D5" s="3">
-        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0.21527777777777768</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>44838</v>
-      </c>
-      <c r="B6" s="8">
-        <v>0.85763888888888884</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.91319444444444453</v>
-      </c>
-      <c r="D6" s="3">
-        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>5.5555555555555691E-2</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>44839</v>
-      </c>
-      <c r="B7" s="8">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D7" s="3">
-        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0.18055555555555547</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>44839</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="D8" s="3">
-        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="F12" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.13888888888888887</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>44839</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1.0208333333333333</v>
-      </c>
-      <c r="D9" s="8">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>44841</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D13" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>44842</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D14" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>44842</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D15" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>44843</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="D16" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>44844</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D17" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>44845</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D18" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>44845</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="D19" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F19" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44846</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D20" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F20" s="6">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>44847</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="D21" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>44847</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D22" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F22" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.4375</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>44848</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F23" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.4375</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>44849</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>44850</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>44851</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D26" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F26" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>44852</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D27" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
         <v>0.22916666666666663</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>44840</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="E27" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F27" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.21527777777777773</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>44853</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F28" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.20694444444444449</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>44854</v>
+      </c>
+      <c r="B29" s="5">
         <v>0.375</v>
       </c>
-      <c r="C10" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="8">
-        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0.125</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>44840</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C29" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
         <v>0.375</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E29" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F29" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.3125</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>44841</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D12" s="8">
-        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0.14930555555555552</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>44841</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.5625</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D13" s="8">
-        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0.35416666666666663</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="H29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>44855</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E30" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F30" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>44842</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D14" s="8">
-        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>44842</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="D15" s="8">
-        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0.44374999999999998</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>44843</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.98611111111111116</v>
-      </c>
-      <c r="D16" s="8">
-        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="8">
-        <v>2.7777777777777776E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>44844</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1.2486111111111111</v>
-      </c>
-      <c r="D17" s="8">
-        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0.99861111111111112</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="8">
-        <v>2.7777777777777776E-2</v>
-      </c>
+      <c r="H30" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>44856</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D31" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>44857</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D32" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>-0.35416666666666669</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>-0.35416666666666669</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>44858</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>44859</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>DATA</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>Atividade voluntária no Alpha EdTeck + Aula de Soft + resolução de atividades pendentes</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTeck + Typescript</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTeck</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTeck + Typescript + Ingles</t>
   </si>
 </sst>
 </file>
@@ -557,8 +566,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H34" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:H34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H40" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:H40"/>
   <tableColumns count="8">
     <tableColumn id="1" name="DATA" totalsRowLabel="Total" dataDxfId="14"/>
     <tableColumn id="2" name="HORA I" dataDxfId="13" totalsRowDxfId="12"/>
@@ -864,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1756,55 +1765,220 @@
       <c r="B32" s="5">
         <v>0.35416666666666669</v>
       </c>
+      <c r="C32" s="2">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D32" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.35416666666666669</v>
-      </c>
-      <c r="E32" s="5"/>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="E32" s="5">
+        <v>6.25E-2</v>
+      </c>
       <c r="F32" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.35416666666666669</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>44858</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="B33" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D33" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>0.5625</v>
+      </c>
+      <c r="E33" s="5">
+        <v>6.25E-2</v>
+      </c>
       <c r="F33" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>44859</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="B34" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D34" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>0.39583333333333337</v>
+      </c>
+      <c r="E34" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="F34" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+        <v>0.31250000000000006</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>44860</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.3125</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.4375</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F35" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>44861</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D36" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F36" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>44862</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D37" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="E37" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F37" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.12499999999999993</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>44863</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>44864</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>44865</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t>DATA</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Atividade voluntária no Alpha EdTeck + Typescript + Ingles</t>
+  </si>
+  <si>
+    <t>Resolução de atvividades Typescript (TS)</t>
   </si>
 </sst>
 </file>
@@ -876,7 +879,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1930,19 +1933,25 @@
       <c r="A38" s="9">
         <v>44863</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5">
+        <v>0.30833333333333335</v>
+      </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.30833333333333335</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+        <v>-0.30833333333333335</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -109,7 +109,7 @@
     <t>Atividade voluntária no Alpha EdTeck + Typescript + Ingles</t>
   </si>
   <si>
-    <t>Resolução de atvividades Typescript (TS)</t>
+    <t xml:space="preserve">Resolução de atvividades Typescript (TS) + Atividade voluntária no Alpha EdTeck </t>
   </si>
 </sst>
 </file>
@@ -879,7 +879,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1929,22 +1929,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>44863</v>
       </c>
       <c r="B38" s="5">
         <v>0.30833333333333335</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D38" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.30833333333333335</v>
-      </c>
-      <c r="E38" s="5"/>
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.11458333333333333</v>
+      </c>
       <c r="F38" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.30833333333333335</v>
+        <v>0.49374999999999997</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>5</v>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
   <si>
     <t>DATA</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Resolução de atvividades Typescript (TS) + Atividade voluntária no Alpha EdTeck </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atividade voluntária no Alpha EdTeck </t>
   </si>
 </sst>
 </file>
@@ -879,7 +882,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1961,19 +1964,23 @@
       <c r="A39" s="9">
         <v>44864</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5">
+        <v>0.27083333333333331</v>
+      </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.27083333333333331</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
+        <v>-0.27083333333333331</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>DATA</t>
   </si>
@@ -76,9 +76,6 @@
     <t>ÚTEIS</t>
   </si>
   <si>
-    <t>Implementação de projeto plant collections + atividade voluntária no Alpha EdTeck</t>
-  </si>
-  <si>
     <t>Implementação de projeto plant collections + apresentação de andamento do projeto</t>
   </si>
   <si>
@@ -88,31 +85,40 @@
     <t>Finalização e apresentação do projero green gollections</t>
   </si>
   <si>
-    <t>Atividade voluntária no Alpha EdTeck + Curso de segurança da informação</t>
-  </si>
-  <si>
-    <t>Atividade voluntária no Alpha EdTeck + revisão de javascript</t>
-  </si>
-  <si>
-    <t>Atividade voluntária no Alpha EdTeck + resolução de atividades pendentes</t>
-  </si>
-  <si>
-    <t>Atividade voluntária no Alpha EdTeck + Aula de Soft + resolução de atividades pendentes</t>
-  </si>
-  <si>
-    <t>Atividade voluntária no Alpha EdTeck + Typescript</t>
-  </si>
-  <si>
-    <t>Atividade voluntária no Alpha EdTeck</t>
-  </si>
-  <si>
-    <t>Atividade voluntária no Alpha EdTeck + Typescript + Ingles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolução de atvividades Typescript (TS) + Atividade voluntária no Alpha EdTeck </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atividade voluntária no Alpha EdTeck </t>
+    <t xml:space="preserve">ESTÁGIO + </t>
+  </si>
+  <si>
+    <t>Implementação de projeto plant collections + atividade voluntária no Alpha EdTech</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTech + Curso de segurança da informação</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTech + revisão de javascript</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTech + resolução de atividades pendentes</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTech + Aula de Soft + resolução de atividades pendentes</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTech</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTech + Typescript</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTech + Typescript + Ingles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolução de atvividades Typescript (TS) + Atividade voluntária no Alpha EdTech </t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTech + Estudando typscript</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTech + Estágio</t>
   </si>
 </sst>
 </file>
@@ -882,7 +888,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1397,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1537,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1562,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1590,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1621,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1649,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1677,7 +1683,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1705,7 +1711,7 @@
         <v>17</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1733,7 +1739,7 @@
         <v>16</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1761,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1789,7 +1795,7 @@
         <v>5</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1817,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1873,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1901,7 +1907,7 @@
         <v>17</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1929,7 +1935,7 @@
         <v>16</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1957,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1967,38 +1973,50 @@
       <c r="B39" s="5">
         <v>0.27083333333333331</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5">
+        <v>0.5</v>
+      </c>
       <c r="D39" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.27083333333333331</v>
-      </c>
-      <c r="E39" s="5"/>
+        <v>0.22916666666666669</v>
+      </c>
+      <c r="E39" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F39" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.27083333333333331</v>
-      </c>
-      <c r="G39" s="4"/>
+        <v>0.18750000000000003</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H39" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>44865</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="5">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
   <si>
     <t>DATA</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Finalização e apresentação do projero green gollections</t>
   </si>
   <si>
-    <t xml:space="preserve">ESTÁGIO + </t>
-  </si>
-  <si>
     <t>Implementação de projeto plant collections + atividade voluntária no Alpha EdTech</t>
   </si>
   <si>
@@ -118,7 +115,25 @@
     <t>Atividade voluntária no Alpha EdTech + Estudando typscript</t>
   </si>
   <si>
-    <t>Atividade voluntária no Alpha EdTech + Estágio</t>
+    <t>ESTÁGIO + HARD</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTech + Estágio + Resolução de atividade Typescript</t>
+  </si>
+  <si>
+    <t>ESTÁGIO</t>
+  </si>
+  <si>
+    <t>Estágio + Atividade voluntária no Alpha EdTech</t>
+  </si>
+  <si>
+    <t>INGLES + HARD</t>
+  </si>
+  <si>
+    <t>Atividade voluntária no Alpha EdTech + InglÊs + Hard</t>
+  </si>
+  <si>
+    <t>Resolução de atvividades Javascript (JS)</t>
   </si>
 </sst>
 </file>
@@ -578,8 +593,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H40" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:H40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H67" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:H67"/>
   <tableColumns count="8">
     <tableColumn id="1" name="DATA" totalsRowLabel="Total" dataDxfId="14"/>
     <tableColumn id="2" name="HORA I" dataDxfId="13" totalsRowDxfId="12"/>
@@ -885,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1627,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1655,7 +1670,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1683,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1711,7 +1726,7 @@
         <v>17</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1739,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1767,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1795,7 +1810,7 @@
         <v>5</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1823,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1851,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1879,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1907,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1935,7 +1950,7 @@
         <v>16</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1963,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1991,32 +2006,566 @@
         <v>5</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>44865</v>
       </c>
       <c r="B40" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="5">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D40" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="E40" s="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="F40" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.33333333333333331</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>44866</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D41" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F41" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>44867</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D42" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F42" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.3125</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>44868</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E43" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F43" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>44869</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E44" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F44" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>44870</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>-0.54861111111111105</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>-0.54861111111111105</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>44871</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>44872</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>44873</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>44874</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>44875</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>44876</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>44877</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>44878</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>44879</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>44880</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>44881</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>44882</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>44883</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>44884</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>44885</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>44886</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>44887</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>44888</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>44889</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>44890</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>44891</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>44892</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>DATA</t>
   </si>
@@ -133,7 +133,7 @@
     <t>Atividade voluntária no Alpha EdTech + InglÊs + Hard</t>
   </si>
   <si>
-    <t>Resolução de atvividades Javascript (JS)</t>
+    <t>Resolução de atividades banco de dados</t>
   </si>
 </sst>
 </file>
@@ -903,7 +903,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2156,17 +2156,23 @@
       <c r="B45" s="5">
         <v>0.54861111111111105</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="5">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D45" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.54861111111111105</v>
-      </c>
-      <c r="E45" s="5"/>
+        <v>0.11805555555555558</v>
+      </c>
+      <c r="E45" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="F45" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.54861111111111105</v>
-      </c>
-      <c r="G45" s="4"/>
+        <v>0.11111111111111113</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H45" s="4" t="s">
         <v>39</v>
       </c>
@@ -2175,19 +2181,25 @@
       <c r="A46" s="9">
         <v>44871</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.40277777777777773</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+        <v>-0.40277777777777773</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>DATA</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Resolução de atividades banco de dados</t>
+  </si>
+  <si>
+    <t>Estágio</t>
   </si>
 </sst>
 </file>
@@ -902,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2184,15 +2187,19 @@
       <c r="B46" s="5">
         <v>0.40277777777777773</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="5">
+        <v>0.75</v>
+      </c>
       <c r="D46" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.40277777777777773</v>
-      </c>
-      <c r="E46" s="5"/>
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="E46" s="5">
+        <v>6.25E-2</v>
+      </c>
       <c r="F46" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.40277777777777773</v>
+        <v>0.28472222222222227</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>5</v>
@@ -2205,19 +2212,23 @@
       <c r="A47" s="9">
         <v>44872</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="5">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.35416666666666669</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
+        <v>-0.35416666666666669</v>
       </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="H47" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
   <si>
     <t>DATA</t>
   </si>
@@ -136,7 +136,7 @@
     <t>Resolução de atividades banco de dados</t>
   </si>
   <si>
-    <t>Estágio</t>
+    <t>Estágio + Aula Typescript</t>
   </si>
 </sst>
 </file>
@@ -906,7 +906,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2215,17 +2215,23 @@
       <c r="B47" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5">
+        <v>0.93055555555555547</v>
+      </c>
       <c r="D47" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.35416666666666669</v>
-      </c>
-      <c r="E47" s="5"/>
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.18194444444444444</v>
+      </c>
       <c r="F47" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.35416666666666669</v>
-      </c>
-      <c r="G47" s="4"/>
+        <v>0.39444444444444438</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H47" s="4" t="s">
         <v>40</v>
       </c>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>DATA</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Estágio + Aula Typescript</t>
+  </si>
+  <si>
+    <t>Estágio</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2240,19 +2243,23 @@
       <c r="A48" s="9">
         <v>44873</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="5">
+        <v>0.30555555555555552</v>
+      </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.30555555555555552</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
+        <v>-0.30555555555555552</v>
       </c>
       <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="H48" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
   <si>
     <t>DATA</t>
   </si>
@@ -139,7 +139,10 @@
     <t>Estágio + Aula Typescript</t>
   </si>
   <si>
-    <t>Estágio</t>
+    <t>Estágio + Momento empresa</t>
+  </si>
+  <si>
+    <t>Estágio + HARD</t>
   </si>
 </sst>
 </file>
@@ -908,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2246,17 +2249,23 @@
       <c r="B48" s="5">
         <v>0.30555555555555552</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5">
+        <v>0.75</v>
+      </c>
       <c r="D48" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.30555555555555552</v>
-      </c>
-      <c r="E48" s="5"/>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="E48" s="5">
+        <v>7.6388888888888895E-2</v>
+      </c>
       <c r="F48" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.30555555555555552</v>
-      </c>
-      <c r="G48" s="4"/>
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="H48" s="4" t="s">
         <v>41</v>
       </c>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
   <si>
     <t>DATA</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Estágio + HARD</t>
+  </si>
+  <si>
+    <t>Estágio</t>
   </si>
 </sst>
 </file>
@@ -912,7 +915,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2274,19 +2277,23 @@
       <c r="A49" s="9">
         <v>44874</v>
       </c>
-      <c r="B49" s="5"/>
+      <c r="B49" s="5">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.43333333333333335</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
+        <v>-0.43333333333333335</v>
       </c>
       <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="H49" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>DATA</t>
   </si>
@@ -145,7 +145,13 @@
     <t>Estágio + HARD</t>
   </si>
   <si>
-    <t>Estágio</t>
+    <t>Estágio + HARD + Atividade voluntária no Alpha EdTech</t>
+  </si>
+  <si>
+    <t>Estágio + SOFT</t>
+  </si>
+  <si>
+    <t>Estágio + SOFT + Atividade voluntária no Alpha EdTech</t>
   </si>
 </sst>
 </file>
@@ -914,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2280,17 +2286,23 @@
       <c r="B49" s="5">
         <v>0.43333333333333335</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="5">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D49" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.43333333333333335</v>
-      </c>
-      <c r="E49" s="5"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.1173611111111111</v>
+      </c>
       <c r="F49" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.43333333333333335</v>
-      </c>
-      <c r="G49" s="4"/>
+        <v>0.40763888888888894</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="H49" s="4" t="s">
         <v>43</v>
       </c>
@@ -2299,19 +2311,29 @@
       <c r="A50" s="9">
         <v>44875</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="B50" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.8125</v>
+      </c>
       <c r="D50" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="5"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E50" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="F50" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
   <si>
     <t>DATA</t>
   </si>
@@ -142,16 +142,19 @@
     <t>Estágio + Momento empresa</t>
   </si>
   <si>
-    <t>Estágio + HARD</t>
-  </si>
-  <si>
     <t>Estágio + HARD + Atividade voluntária no Alpha EdTech</t>
   </si>
   <si>
-    <t>Estágio + SOFT</t>
-  </si>
-  <si>
     <t>Estágio + SOFT + Atividade voluntária no Alpha EdTech</t>
+  </si>
+  <si>
+    <t>HARD + ESTÁGIO</t>
+  </si>
+  <si>
+    <t>ESTÁGIO + SOFT</t>
+  </si>
+  <si>
+    <t>HARD + Estágio +</t>
   </si>
 </sst>
 </file>
@@ -921,7 +924,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2273,7 +2276,7 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>41</v>
@@ -2301,10 +2304,10 @@
         <v>0.40763888888888894</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2329,29 +2332,35 @@
         <v>0.33333333333333337</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>44876</v>
       </c>
-      <c r="B51" s="5"/>
+      <c r="B51" s="5">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
     <t>DATA</t>
   </si>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2345,15 +2345,19 @@
       <c r="B51" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="5">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="D51" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="E51" s="5"/>
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="F51" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.33333333333333331</v>
+        <v>0.43680555555555556</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>44</v>
@@ -2366,19 +2370,29 @@
       <c r="A52" s="9">
         <v>44877</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
       <c r="D52" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
         <v>0</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
       <c r="F52" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
         <v>0</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
   <si>
     <t>DATA</t>
   </si>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2398,19 +2398,23 @@
       <c r="A53" s="9">
         <v>44878</v>
       </c>
-      <c r="B53" s="5"/>
+      <c r="B53" s="5">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.45833333333333331</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
+        <v>-0.45833333333333331</v>
       </c>
       <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>DATA</t>
   </si>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2401,17 +2401,23 @@
       <c r="B53" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5">
+        <v>0.9375</v>
+      </c>
       <c r="D53" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.45833333333333331</v>
-      </c>
-      <c r="E53" s="5"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.11597222222222221</v>
+      </c>
       <c r="F53" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.45833333333333331</v>
-      </c>
-      <c r="G53" s="4"/>
+        <v>0.36319444444444449</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H53" s="4" t="s">
         <v>28</v>
       </c>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -924,7 +924,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2426,16 +2426,18 @@
       <c r="A54" s="9">
         <v>44879</v>
       </c>
-      <c r="B54" s="5"/>
+      <c r="B54" s="5">
+        <v>0.25</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>DATA</t>
   </si>
@@ -2429,18 +2429,26 @@
       <c r="B54" s="5">
         <v>0.25</v>
       </c>
-      <c r="C54" s="5"/>
+      <c r="C54" s="5">
+        <v>0.96180555555555547</v>
+      </c>
       <c r="D54" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.25</v>
-      </c>
-      <c r="E54" s="5"/>
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.16250000000000001</v>
+      </c>
       <c r="F54" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.25</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+        <v>0.54930555555555549</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
   <si>
     <t>DATA</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>HARD + Estágio +</t>
+  </si>
+  <si>
+    <t>Estágio + HARD</t>
   </si>
 </sst>
 </file>
@@ -924,7 +927,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2454,19 +2457,25 @@
       <c r="A55" s="9">
         <v>44880</v>
       </c>
-      <c r="B55" s="5"/>
+      <c r="B55" s="5">
+        <v>0.34027777777777773</v>
+      </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.34027777777777773</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+        <v>-0.34027777777777773</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -927,7 +927,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2460,15 +2460,19 @@
       <c r="B55" s="5">
         <v>0.34027777777777773</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="5">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="D55" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.34027777777777773</v>
-      </c>
-      <c r="E55" s="5"/>
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="F55" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.34027777777777773</v>
+        <v>0.5131944444444444</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>33</v>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
   <si>
     <t>DATA</t>
   </si>
@@ -927,7 +927,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2485,36 +2485,50 @@
       <c r="A56" s="9">
         <v>44881</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="B56" s="5">
+        <v>0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.89861111111111114</v>
+      </c>
       <c r="D56" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="5"/>
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.30138888888888887</v>
+      </c>
       <c r="F56" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+        <v>0.59722222222222232</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>44882</v>
       </c>
-      <c r="B57" s="5"/>
+      <c r="B57" s="5">
+        <v>0.40972222222222227</v>
+      </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.40972222222222227</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="4"/>
+        <v>-0.40972222222222227</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
   <si>
     <t>DATA</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Estágio + HARD</t>
+  </si>
+  <si>
+    <t>Estágio + HARD + SOFT + Atividade voluntária no Alpha EdTech</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2516,20 +2519,26 @@
       <c r="B57" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C57" s="5"/>
+      <c r="C57" s="5">
+        <v>0.88888888888888884</v>
+      </c>
       <c r="D57" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.40972222222222227</v>
-      </c>
-      <c r="E57" s="5"/>
+        <v>0.47916666666666657</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.11805555555555557</v>
+      </c>
       <c r="F57" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.40972222222222227</v>
+        <v>0.36111111111111099</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H57" s="4"/>
+      <c r="H57" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
   <si>
     <t>DATA</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Estágio + HARD + SOFT + Atividade voluntária no Alpha EdTech</t>
+  </si>
+  <si>
+    <t>Estágio</t>
   </si>
 </sst>
 </file>
@@ -930,7 +933,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2544,19 +2547,25 @@
       <c r="A58" s="9">
         <v>44883</v>
       </c>
-      <c r="B58" s="5"/>
+      <c r="B58" s="5">
+        <v>0.28819444444444448</v>
+      </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.28819444444444448</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+        <v>-0.28819444444444448</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
   <si>
     <t>DATA</t>
   </si>
@@ -163,7 +163,7 @@
     <t>Estágio + HARD + SOFT + Atividade voluntária no Alpha EdTech</t>
   </si>
   <si>
-    <t>Estágio</t>
+    <t>Estágio + HARD + INGLÊS</t>
   </si>
 </sst>
 </file>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2550,15 +2550,19 @@
       <c r="B58" s="5">
         <v>0.28819444444444448</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="5">
+        <v>0.84930555555555554</v>
+      </c>
       <c r="D58" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.28819444444444448</v>
-      </c>
-      <c r="E58" s="5"/>
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.18680555555555556</v>
+      </c>
       <c r="F58" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.28819444444444448</v>
+        <v>0.37430555555555556</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>35</v>
@@ -2571,19 +2575,23 @@
       <c r="A59" s="9">
         <v>44884</v>
       </c>
-      <c r="B59" s="5"/>
+      <c r="B59" s="5">
+        <v>0.71180555555555547</v>
+      </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.71180555555555547</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
+        <v>-0.71180555555555547</v>
       </c>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -933,7 +933,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2578,15 +2578,19 @@
       <c r="B59" s="5">
         <v>0.71180555555555547</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59" s="5">
+        <v>0.87916666666666676</v>
+      </c>
       <c r="D59" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.71180555555555547</v>
-      </c>
-      <c r="E59" s="5"/>
+        <v>0.16736111111111129</v>
+      </c>
+      <c r="E59" s="5">
+        <v>6.8749999999999992E-2</v>
+      </c>
       <c r="F59" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.71180555555555547</v>
+        <v>9.8611111111111302E-2</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>DATA</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Estágio + HARD + INGLÊS</t>
+  </si>
+  <si>
+    <t>Estágio + HARD (Atividades)</t>
   </si>
 </sst>
 </file>
@@ -933,7 +936,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2601,19 +2604,25 @@
       <c r="A60" s="9">
         <v>44885</v>
       </c>
-      <c r="B60" s="5"/>
+      <c r="B60" s="5">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -166,7 +166,7 @@
     <t>Estágio + HARD + INGLÊS</t>
   </si>
   <si>
-    <t>Estágio + HARD (Atividades)</t>
+    <t>HARD (Atividades) + Estágio</t>
   </si>
 </sst>
 </file>
@@ -936,7 +936,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2607,15 +2607,19 @@
       <c r="B60" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" s="5">
+        <v>0.75</v>
+      </c>
       <c r="D60" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="E60" s="5"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="F60" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>44</v>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
   <si>
     <t>DATA</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>HARD (Atividades) + Estágio</t>
+  </si>
+  <si>
+    <t>Estágio +</t>
   </si>
 </sst>
 </file>
@@ -2632,19 +2635,25 @@
       <c r="A61" s="9">
         <v>44886</v>
       </c>
-      <c r="B61" s="5"/>
+      <c r="B61" s="5">
+        <v>0.30555555555555552</v>
+      </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.30555555555555552</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+        <v>-0.30555555555555552</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>DATA</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>HARD (Atividades) + Estágio</t>
-  </si>
-  <si>
-    <t>Estágio +</t>
   </si>
 </sst>
 </file>
@@ -2638,21 +2635,25 @@
       <c r="B61" s="5">
         <v>0.30555555555555552</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="5">
+        <v>0.95694444444444438</v>
+      </c>
       <c r="D61" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.30555555555555552</v>
-      </c>
-      <c r="E61" s="5"/>
+        <v>0.6513888888888888</v>
+      </c>
+      <c r="E61" s="5">
+        <v>9.1666666666666674E-2</v>
+      </c>
       <c r="F61" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.30555555555555552</v>
+        <v>0.55972222222222212</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
   <si>
     <t>DATA</t>
   </si>
@@ -936,7 +936,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2660,18 +2660,22 @@
       <c r="A62" s="9">
         <v>44887</v>
       </c>
-      <c r="B62" s="5"/>
+      <c r="B62" s="5">
+        <v>0.3125</v>
+      </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.3125</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="4"/>
+        <v>-0.3125</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
   <si>
     <t>DATA</t>
   </si>
@@ -2663,20 +2663,26 @@
       <c r="B62" s="5">
         <v>0.3125</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62" s="5">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="D62" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.3125</v>
-      </c>
-      <c r="E62" s="5"/>
+        <v>0.49305555555555547</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.12361111111111112</v>
+      </c>
       <c r="F62" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.3125</v>
+        <v>0.36944444444444435</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
   <si>
     <t>DATA</t>
   </si>
@@ -936,7 +936,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2688,19 +2688,25 @@
       <c r="A63" s="9">
         <v>44888</v>
       </c>
-      <c r="B63" s="5"/>
+      <c r="B63" s="5">
+        <v>0.3263888888888889</v>
+      </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.3263888888888889</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+        <v>-0.3263888888888889</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
   <si>
     <t>DATA</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>HARD (Atividades) + Estágio</t>
+  </si>
+  <si>
+    <t>Estágio + Atividade voluntária no Alpha EdTech + HARD</t>
   </si>
 </sst>
 </file>
@@ -2691,21 +2694,25 @@
       <c r="B63" s="5">
         <v>0.3263888888888889</v>
       </c>
-      <c r="C63" s="5"/>
+      <c r="C63" s="5">
+        <v>0.93055555555555547</v>
+      </c>
       <c r="D63" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.3263888888888889</v>
-      </c>
-      <c r="E63" s="5"/>
+        <v>0.60416666666666652</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0.11666666666666665</v>
+      </c>
       <c r="F63" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.3263888888888889</v>
+        <v>0.48749999999999988</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
   <si>
     <t>DATA</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Estágio + Atividade voluntária no Alpha EdTech + HARD</t>
+  </si>
+  <si>
+    <t>Estágio +</t>
   </si>
 </sst>
 </file>
@@ -939,7 +942,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2719,19 +2722,25 @@
       <c r="A64" s="9">
         <v>44889</v>
       </c>
-      <c r="B64" s="5"/>
+      <c r="B64" s="5">
+        <v>0.4375</v>
+      </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.4375</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+        <v>-0.4375</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -172,7 +172,7 @@
     <t>Estágio + Atividade voluntária no Alpha EdTech + HARD</t>
   </si>
   <si>
-    <t>Estágio +</t>
+    <t>Estágio</t>
   </si>
 </sst>
 </file>
@@ -2725,15 +2725,19 @@
       <c r="B64" s="5">
         <v>0.4375</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="5">
+        <v>0.90555555555555556</v>
+      </c>
       <c r="D64" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.4375</v>
-      </c>
-      <c r="E64" s="5"/>
+        <v>0.46805555555555556</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0.25833333333333336</v>
+      </c>
       <c r="F64" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>-0.4375</v>
+        <v>0.2097222222222222</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>35</v>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
   <si>
     <t>DATA</t>
   </si>
@@ -34,9 +34,6 @@
     <t>HARD</t>
   </si>
   <si>
-    <t>DESCANSO</t>
-  </si>
-  <si>
     <t>Aula de HARD (Controle de sessão) + Início de implemetação do controle de produtos o (projeto green collections)</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Estágio</t>
+  </si>
+  <si>
+    <t>PAUSAS</t>
   </si>
 </sst>
 </file>
@@ -641,9 +641,9 @@
     <tableColumn id="8" name="DIF" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="DESCANSO" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" name="PAUSAS" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="9" name="ÚTEIS" dataDxfId="5" totalsRowDxfId="4">
-      <calculatedColumnFormula>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="ASSUNTO" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="5" name="PRODUÇÃO" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
@@ -942,7 +942,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -951,7 +951,7 @@
     <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69.7109375" style="1" customWidth="1"/>
@@ -969,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>1</v>
@@ -1002,14 +1002,14 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F2" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.16458333333333333</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1030,14 +1030,14 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F3" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.16875000000000004</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1058,14 +1058,14 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F4" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>7.6388888888888909E-2</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1086,14 +1086,14 @@
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.21527777777777768</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1114,14 +1114,14 @@
         <v>0</v>
       </c>
       <c r="F6" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>5.5555555555555691E-2</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1142,14 +1142,14 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F7" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.17013888888888881</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1170,14 +1170,14 @@
         <v>0</v>
       </c>
       <c r="F8" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.16666666666666663</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1198,14 +1198,14 @@
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.22916666666666663</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1226,14 +1226,14 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F10" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.11458333333333333</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1254,14 +1254,14 @@
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.375</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1282,14 +1282,14 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="F12" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.13888888888888887</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1310,14 +1310,14 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F13" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.34027777777777773</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1338,14 +1338,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.1388888888888889</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1366,14 +1366,14 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F15" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.42986111111111108</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,14 +1394,14 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="F16" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.70833333333333337</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1422,14 +1422,14 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="F17" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.72152777777777777</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1450,14 +1450,14 @@
         <v>0</v>
       </c>
       <c r="F18" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.10416666666666667</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1478,14 +1478,14 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="F19" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.52083333333333337</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1506,14 +1506,14 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="F20" s="6">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.56874999999999998</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1534,14 +1534,14 @@
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.1388888888888889</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1562,14 +1562,14 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F22" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.4375</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1590,14 +1590,14 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F23" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.4375</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1618,14 +1618,14 @@
         <v>0</v>
       </c>
       <c r="F24" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1646,14 +1646,14 @@
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1674,14 +1674,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F26" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1702,14 +1702,14 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F27" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.21527777777777773</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1730,14 +1730,14 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="F28" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.20694444444444449</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1758,14 +1758,14 @@
         <v>6.25E-2</v>
       </c>
       <c r="F29" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.3125</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1786,14 +1786,14 @@
         <v>6.25E-2</v>
       </c>
       <c r="F30" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.27083333333333331</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1814,14 +1814,14 @@
         <v>0</v>
       </c>
       <c r="F31" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1842,14 +1842,14 @@
         <v>6.25E-2</v>
       </c>
       <c r="F32" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.24999999999999994</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1870,14 +1870,14 @@
         <v>6.25E-2</v>
       </c>
       <c r="F33" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.5</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1898,14 +1898,14 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F34" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.31250000000000006</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1926,14 +1926,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="F35" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.27083333333333337</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -1954,14 +1954,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="F36" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.20833333333333334</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1982,14 +1982,14 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F37" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.12499999999999993</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -2010,14 +2010,14 @@
         <v>0.11458333333333333</v>
       </c>
       <c r="F38" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.49374999999999997</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2038,14 +2038,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F39" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.18750000000000003</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -2066,14 +2066,14 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="F40" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.30555555555555552</v>
       </c>
       <c r="G40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2094,14 +2094,14 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="F41" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.30555555555555552</v>
       </c>
       <c r="G41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2122,14 +2122,14 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F42" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.3125</v>
       </c>
       <c r="G42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2150,14 +2150,14 @@
         <v>6.25E-2</v>
       </c>
       <c r="F43" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.3263888888888889</v>
       </c>
       <c r="G43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2178,14 +2178,14 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F44" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.30555555555555558</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2206,14 +2206,14 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F45" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.11111111111111113</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2234,14 +2234,14 @@
         <v>6.25E-2</v>
       </c>
       <c r="F46" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.28472222222222227</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2262,14 +2262,14 @@
         <v>0.18194444444444444</v>
       </c>
       <c r="F47" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.39444444444444438</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2290,14 +2290,14 @@
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="F48" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.36805555555555558</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2318,14 +2318,14 @@
         <v>0.1173611111111111</v>
       </c>
       <c r="F49" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.40763888888888894</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2346,14 +2346,14 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F50" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.33333333333333337</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2374,14 +2374,14 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="F51" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.43680555555555556</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2402,14 +2402,14 @@
         <v>0</v>
       </c>
       <c r="F52" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2430,14 +2430,14 @@
         <v>0.11597222222222221</v>
       </c>
       <c r="F53" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.36319444444444449</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2458,14 +2458,14 @@
         <v>0.16250000000000001</v>
       </c>
       <c r="F54" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.54930555555555549</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2486,14 +2486,14 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="F55" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.5131944444444444</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2514,14 +2514,14 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="F56" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.59722222222222232</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2542,14 +2542,14 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="F57" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.36111111111111099</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2570,14 +2570,14 @@
         <v>0.18680555555555556</v>
       </c>
       <c r="F58" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.37430555555555556</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2598,12 +2598,12 @@
         <v>6.8749999999999992E-2</v>
       </c>
       <c r="F59" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>9.8611111111111302E-2</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2624,14 +2624,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="F60" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.25</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2652,14 +2652,14 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="F61" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.55972222222222212</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2680,14 +2680,14 @@
         <v>0.12361111111111112</v>
       </c>
       <c r="F62" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.36944444444444435</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2708,14 +2708,14 @@
         <v>0.11666666666666665</v>
       </c>
       <c r="F63" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.48749999999999988</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2736,33 +2736,39 @@
         <v>0.25833333333333336</v>
       </c>
       <c r="F64" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0.2097222222222222</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>44890</v>
       </c>
-      <c r="B65" s="5"/>
+      <c r="B65" s="5">
+        <v>0.30208333333333331</v>
+      </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.30208333333333331</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>-0.30208333333333331</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
@@ -2776,7 +2782,7 @@
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0</v>
       </c>
       <c r="G66" s="4"/>
@@ -2794,7 +2800,7 @@
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="11">
-        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[DESCANSO]]</f>
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
         <v>0</v>
       </c>
       <c r="G67" s="4"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -958,7 +958,7 @@
     <col min="9" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2753,21 +2753,25 @@
       <c r="B65" s="5">
         <v>0.30208333333333331</v>
       </c>
-      <c r="C65" s="5"/>
+      <c r="C65" s="5">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D65" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.30208333333333331</v>
-      </c>
-      <c r="E65" s="5"/>
+        <v>0.40625000000000006</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="F65" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>-0.30208333333333331</v>
+        <v>0.2395833333333334</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="53">
   <si>
     <t>DATA</t>
   </si>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="B50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2778,8 +2778,12 @@
       <c r="A66" s="9">
         <v>44891</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
+      <c r="B66" s="5">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
       <c r="D66" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
         <v>0</v>
@@ -2796,19 +2800,23 @@
       <c r="A67" s="9">
         <v>44892</v>
       </c>
-      <c r="B67" s="5"/>
+      <c r="B67" s="5">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.72916666666666663</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>0</v>
+        <v>-0.72916666666666663</v>
       </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
+      <c r="H67" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -632,8 +632,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H67" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:H67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H101" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:H101"/>
   <tableColumns count="8">
     <tableColumn id="1" name="DATA" totalsRowLabel="Total" dataDxfId="14"/>
     <tableColumn id="2" name="HORA I" dataDxfId="13" totalsRowDxfId="12"/>
@@ -939,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2803,20 +2803,636 @@
       <c r="B67" s="5">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C67" s="5"/>
+      <c r="C67" s="5">
+        <v>0.87152777777777779</v>
+      </c>
       <c r="D67" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.72916666666666663</v>
-      </c>
-      <c r="E67" s="5"/>
+        <v>0.14236111111111116</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2.361111111111111E-2</v>
+      </c>
       <c r="F67" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>-0.72916666666666663</v>
+        <v>0.11875000000000005</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>44893</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>44894</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>44895</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>44896</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>44897</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>44898</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>44899</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>44900</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>44901</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>44902</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>44903</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>44904</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>44905</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>44906</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>44907</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>44908</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>44909</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>44910</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>44911</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>44912</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>44913</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>44914</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>44915</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>44916</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>44917</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>44918</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>44919</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>44920</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>44921</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>44922</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>44923</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>44924</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>44925</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>44926</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5">
+        <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="11">
+        <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>DATA</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>PAUSAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estágio + Atividade voluntária no Alpha EdTech </t>
   </si>
 </sst>
 </file>
@@ -942,7 +945,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2826,19 +2829,23 @@
       <c r="A68" s="9">
         <v>44893</v>
       </c>
-      <c r="B68" s="5"/>
+      <c r="B68" s="5">
+        <v>0.32361111111111113</v>
+      </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.32361111111111113</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>0</v>
+        <v>-0.32361111111111113</v>
       </c>
       <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
   <si>
     <t>DATA</t>
   </si>
@@ -945,7 +945,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2832,17 +2832,23 @@
       <c r="B68" s="5">
         <v>0.32361111111111113</v>
       </c>
-      <c r="C68" s="5"/>
+      <c r="C68" s="5">
+        <v>0.88888888888888884</v>
+      </c>
       <c r="D68" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.32361111111111113</v>
-      </c>
-      <c r="E68" s="5"/>
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="E68" s="5">
+        <v>8.8888888888888892E-2</v>
+      </c>
       <c r="F68" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>-0.32361111111111113</v>
-      </c>
-      <c r="G68" s="4"/>
+        <v>0.47638888888888886</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="H68" s="4" t="s">
         <v>53</v>
       </c>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>DATA</t>
   </si>
@@ -945,7 +945,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2857,19 +2857,25 @@
       <c r="A69" s="9">
         <v>44894</v>
       </c>
-      <c r="B69" s="5"/>
+      <c r="B69" s="5">
+        <v>0.3125</v>
+      </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.3125</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+        <v>-0.3125</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="54">
   <si>
     <t>DATA</t>
   </si>
@@ -945,7 +945,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2860,18 +2860,22 @@
       <c r="B69" s="5">
         <v>0.3125</v>
       </c>
-      <c r="C69" s="5"/>
+      <c r="C69" s="5">
+        <v>0.6875</v>
+      </c>
       <c r="D69" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.3125</v>
-      </c>
-      <c r="E69" s="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="F69" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>-0.3125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>51</v>
@@ -2881,19 +2885,25 @@
       <c r="A70" s="9">
         <v>44895</v>
       </c>
-      <c r="B70" s="5"/>
+      <c r="B70" s="5">
+        <v>0.61111111111111105</v>
+      </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.61111111111111105</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+        <v>-0.61111111111111105</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -945,7 +945,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2888,15 +2888,19 @@
       <c r="B70" s="5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="C70" s="5"/>
+      <c r="C70" s="5">
+        <v>0.88263888888888886</v>
+      </c>
       <c r="D70" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.61111111111111105</v>
-      </c>
-      <c r="E70" s="5"/>
+        <v>0.27152777777777781</v>
+      </c>
+      <c r="E70" s="5">
+        <v>6.9444444444444434E-2</v>
+      </c>
       <c r="F70" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>-0.61111111111111105</v>
+        <v>0.20208333333333339</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>5</v>

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
   <si>
     <t>DATA</t>
   </si>
@@ -945,7 +945,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2913,19 +2913,25 @@
       <c r="A71" s="9">
         <v>44896</v>
       </c>
-      <c r="B71" s="5"/>
+      <c r="B71" s="5">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.29166666666666669</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
+        <v>-0.29166666666666669</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
   <si>
     <t>DATA</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t xml:space="preserve">Estágio + Atividade voluntária no Alpha EdTech </t>
+  </si>
+  <si>
+    <t>ESTÁGIO + HARD + SOFT</t>
+  </si>
+  <si>
+    <t>Estágio + Hard + Soft</t>
   </si>
 </sst>
 </file>
@@ -945,7 +951,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2909,47 +2915,57 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>44896</v>
       </c>
       <c r="B71" s="5">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C71" s="5"/>
+      <c r="C71" s="5">
+        <v>0.75</v>
+      </c>
       <c r="D71" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.29166666666666669</v>
-      </c>
-      <c r="E71" s="5"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0.20138888888888887</v>
+      </c>
       <c r="F71" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>-0.29166666666666669</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>44897</v>
       </c>
-      <c r="B72" s="5"/>
+      <c r="B72" s="5">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.29166666666666669</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
+        <v>-0.29166666666666669</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
   <si>
     <t>DATA</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Estágio + Hard + Soft</t>
+  </si>
+  <si>
+    <t>Estágio + Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard + Atividade voluntária no Alpha EdTech </t>
   </si>
 </sst>
 </file>
@@ -950,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2950,29 +2956,37 @@
       <c r="B72" s="5">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C72" s="5"/>
+      <c r="C72" s="5">
+        <v>0.625</v>
+      </c>
       <c r="D72" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.29166666666666669</v>
-      </c>
-      <c r="E72" s="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0.12222222222222223</v>
+      </c>
       <c r="F72" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>-0.29166666666666669</v>
+        <v>0.21111111111111108</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>44898</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="B73" s="5">
+        <v>0</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0</v>
+      </c>
       <c r="D73" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
         <v>0</v>
@@ -2989,19 +3003,29 @@
       <c r="A74" s="9">
         <v>44899</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="B74" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D74" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="5"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E74" s="5">
+        <v>9.2361111111111116E-2</v>
+      </c>
       <c r="F74" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
+        <v>0.19930555555555551</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
   <si>
     <t>DATA</t>
   </si>
@@ -957,7 +957,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+      <selection activeCell="H79" activeCellId="1" sqref="H79 C70:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3031,19 +3031,25 @@
       <c r="A75" s="9">
         <v>44900</v>
       </c>
-      <c r="B75" s="5"/>
+      <c r="B75" s="5">
+        <v>0.2638888888888889</v>
+      </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.2638888888888889</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+        <v>-0.2638888888888889</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -957,7 +957,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H79" activeCellId="1" sqref="H79 C70:H79"/>
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3034,21 +3034,25 @@
       <c r="B75" s="5">
         <v>0.2638888888888889</v>
       </c>
-      <c r="C75" s="5"/>
+      <c r="C75" s="5">
+        <v>0.88888888888888884</v>
+      </c>
       <c r="D75" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.2638888888888889</v>
-      </c>
-      <c r="E75" s="5"/>
+        <v>0.625</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.23472222222222219</v>
+      </c>
       <c r="F75" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>-0.2638888888888889</v>
+        <v>0.39027777777777783</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
   <si>
     <t>DATA</t>
   </si>
@@ -957,7 +957,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3059,19 +3059,25 @@
       <c r="A76" s="9">
         <v>44901</v>
       </c>
-      <c r="B76" s="5"/>
+      <c r="B76" s="5">
+        <v>0.3125</v>
+      </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.3125</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>0</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
+        <v>-0.3125</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9">

--- a/studies.xlsx
+++ b/studies.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="59">
   <si>
     <t>DATA</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hard + Atividade voluntária no Alpha EdTech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estágio + Hard + Atividade voluntária no Alpha EdTech </t>
   </si>
 </sst>
 </file>
@@ -957,7 +960,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3062,15 +3065,19 @@
       <c r="B76" s="5">
         <v>0.3125</v>
       </c>
-      <c r="C76" s="5"/>
+      <c r="C76" s="5">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D76" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>-0.3125</v>
-      </c>
-      <c r="E76" s="5"/>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="E76" s="5">
+        <v>8.2638888888888887E-2</v>
+      </c>
       <c r="F76" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>-0.3125</v>
+        <v>0.14652777777777776</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>51</v>
@@ -3083,37 +3090,53 @@
       <c r="A77" s="9">
         <v>44902</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+      <c r="B77" s="5">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D77" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
-      </c>
-      <c r="E77" s="5"/>
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="E77" s="5">
+        <v>9.8611111111111108E-2</v>
+      </c>
       <c r="F77" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>44903</v>
       </c>
-      <c r="B78" s="5"/>
+      <c r="B78" s="5">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5">
         <f>Tabela1[[#This Row],[HORA F]]-Tabela1[[#This Row],[HORA I]]</f>
-        <v>0</v>
+        <v>-0.35416666666666669</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="11">
         <f>Tabela1[[#This Row],[DIF]]-Tabela1[[#This Row],[PAUSAS]]</f>
-        <v>0</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
+        <v>-0.35416666666666669</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
